--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N2">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O2">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P2">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q2">
-        <v>0.5248492025983335</v>
+        <v>1.449078588935333</v>
       </c>
       <c r="R2">
-        <v>0.5248492025983335</v>
+        <v>13.041707300418</v>
       </c>
       <c r="S2">
-        <v>0.05688068783044534</v>
+        <v>0.09522622238395866</v>
       </c>
       <c r="T2">
-        <v>0.05688068783044534</v>
+        <v>0.1052953805508492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N3">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P3">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q3">
-        <v>1.629685447347648</v>
+        <v>2.908335016507111</v>
       </c>
       <c r="R3">
-        <v>1.629685447347648</v>
+        <v>26.175015148564</v>
       </c>
       <c r="S3">
-        <v>0.1766176431887287</v>
+        <v>0.1911212815948379</v>
       </c>
       <c r="T3">
-        <v>0.1766176431887287</v>
+        <v>0.2113303202951006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N4">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O4">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P4">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q4">
-        <v>0.1510749152174192</v>
+        <v>0.2992204611965555</v>
       </c>
       <c r="R4">
-        <v>0.1510749152174192</v>
+        <v>2.692984150769</v>
       </c>
       <c r="S4">
-        <v>0.01637278869616464</v>
+        <v>0.01966327733864918</v>
       </c>
       <c r="T4">
-        <v>0.01637278869616464</v>
+        <v>0.02174245936063439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H5">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I5">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J5">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N5">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O5">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P5">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q5">
-        <v>0.5990091672695967</v>
+        <v>0.982686120927</v>
       </c>
       <c r="R5">
-        <v>0.5990091672695967</v>
+        <v>8.844175088343</v>
       </c>
       <c r="S5">
-        <v>0.06491779597331743</v>
+        <v>0.06457723397443711</v>
       </c>
       <c r="T5">
-        <v>0.06491779597331743</v>
+        <v>0.07140558825113094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H6">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I6">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J6">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N6">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O6">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P6">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q6">
-        <v>0.3736912129879724</v>
+        <v>0.635042552821</v>
       </c>
       <c r="R6">
-        <v>0.3736912129879724</v>
+        <v>3.810255316926</v>
       </c>
       <c r="S6">
-        <v>0.0404988959223329</v>
+        <v>0.04173183139959293</v>
       </c>
       <c r="T6">
-        <v>0.0404988959223329</v>
+        <v>0.03076301854886442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J7">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N7">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O7">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P7">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q7">
-        <v>0.5979304489745576</v>
+        <v>1.047837855437333</v>
       </c>
       <c r="R7">
-        <v>0.5979304489745576</v>
+        <v>9.430540698935999</v>
       </c>
       <c r="S7">
-        <v>0.06480088955849703</v>
+        <v>0.06885868123792883</v>
       </c>
       <c r="T7">
-        <v>0.06480088955849703</v>
+        <v>0.07613975293425812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J8">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N8">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P8">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q8">
-        <v>1.856606709881235</v>
+        <v>2.103035370103111</v>
       </c>
       <c r="R8">
-        <v>1.856606709881235</v>
+        <v>18.927318330928</v>
       </c>
       <c r="S8">
-        <v>0.2012103022465373</v>
+        <v>0.138201002598422</v>
       </c>
       <c r="T8">
-        <v>0.2012103022465373</v>
+        <v>0.1528142857797652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J9">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N9">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O9">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P9">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q9">
-        <v>0.1721109443198981</v>
+        <v>0.2163682002875555</v>
       </c>
       <c r="R9">
-        <v>0.1721109443198981</v>
+        <v>1.947313802588</v>
       </c>
       <c r="S9">
-        <v>0.01865257458256138</v>
+        <v>0.0142186397029976</v>
       </c>
       <c r="T9">
-        <v>0.01865257458256138</v>
+        <v>0.01572210931990881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J10">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N10">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O10">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P10">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q10">
-        <v>0.6824166228170681</v>
+        <v>0.710586524004</v>
       </c>
       <c r="R10">
-        <v>0.6824166228170681</v>
+        <v>6.395278716036</v>
       </c>
       <c r="S10">
-        <v>0.07395710367968399</v>
+        <v>0.04669620466034556</v>
       </c>
       <c r="T10">
-        <v>0.07395710367968399</v>
+        <v>0.05163383064977801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J11">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N11">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O11">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P11">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q11">
-        <v>0.4257248627864351</v>
+        <v>0.459203270092</v>
       </c>
       <c r="R11">
-        <v>0.4257248627864351</v>
+        <v>2.755219620552</v>
       </c>
       <c r="S11">
-        <v>0.04613805813542696</v>
+        <v>0.03017655015477786</v>
       </c>
       <c r="T11">
-        <v>0.04613805813542696</v>
+        <v>0.02224493248962048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H12">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I12">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J12">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N12">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O12">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P12">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q12">
-        <v>0.354471144671705</v>
+        <v>0.112332795778</v>
       </c>
       <c r="R12">
-        <v>0.354471144671705</v>
+        <v>1.010995162002</v>
       </c>
       <c r="S12">
-        <v>0.03841591532416268</v>
+        <v>0.007381951450698721</v>
       </c>
       <c r="T12">
-        <v>0.03841591532416268</v>
+        <v>0.008162514145265018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H13">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I13">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J13">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N13">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P13">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q13">
-        <v>1.100652269482889</v>
+        <v>0.2254545791773333</v>
       </c>
       <c r="R13">
-        <v>1.100652269482889</v>
+        <v>2.029091212596</v>
       </c>
       <c r="S13">
-        <v>0.119283515799184</v>
+        <v>0.01481575123540842</v>
       </c>
       <c r="T13">
-        <v>0.119283515799184</v>
+        <v>0.01638235903330172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H14">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I14">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J14">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N14">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O14">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P14">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q14">
-        <v>0.1020325416580321</v>
+        <v>0.02319561631566667</v>
       </c>
       <c r="R14">
-        <v>0.1020325416580321</v>
+        <v>0.208760546841</v>
       </c>
       <c r="S14">
-        <v>0.01105780693171593</v>
+        <v>0.001524300292940996</v>
       </c>
       <c r="T14">
-        <v>0.01105780693171593</v>
+        <v>0.001685478804061331</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H15">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I15">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J15">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N15">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O15">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P15">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q15">
-        <v>0.4045570882831194</v>
+        <v>0.076177979703</v>
       </c>
       <c r="R15">
-        <v>0.4045570882831194</v>
+        <v>0.685601817327</v>
       </c>
       <c r="S15">
-        <v>0.04384399430218187</v>
+        <v>0.005006037140669043</v>
       </c>
       <c r="T15">
-        <v>0.04384399430218187</v>
+        <v>0.005535372217676319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.073199</v>
+      </c>
+      <c r="H16">
+        <v>0.219597</v>
+      </c>
+      <c r="I16">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J16">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.672531</v>
+      </c>
+      <c r="N16">
+        <v>1.345062</v>
+      </c>
+      <c r="O16">
+        <v>0.1012122790946305</v>
+      </c>
+      <c r="P16">
+        <v>0.06983076295287964</v>
+      </c>
+      <c r="Q16">
+        <v>0.049228596669</v>
+      </c>
+      <c r="R16">
+        <v>0.295371580014</v>
+      </c>
+      <c r="S16">
+        <v>0.003235058008480174</v>
+      </c>
+      <c r="T16">
+        <v>0.002384753944024099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.449404</v>
+      </c>
+      <c r="I17">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J17">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.534622</v>
+      </c>
+      <c r="N17">
+        <v>4.603866</v>
+      </c>
+      <c r="O17">
+        <v>0.2309523132298141</v>
+      </c>
+      <c r="P17">
+        <v>0.2390161013490993</v>
+      </c>
+      <c r="Q17">
+        <v>0.2298884217626667</v>
+      </c>
+      <c r="R17">
+        <v>2.068995795864</v>
+      </c>
+      <c r="S17">
+        <v>0.0151071212710092</v>
+      </c>
+      <c r="T17">
+        <v>0.01670453834496227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.449404</v>
+      </c>
+      <c r="I18">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J18">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.080022666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.240068000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.4635267575122261</v>
+      </c>
+      <c r="P18">
+        <v>0.4797109710753027</v>
+      </c>
+      <c r="Q18">
+        <v>0.4613915021635556</v>
+      </c>
+      <c r="R18">
+        <v>4.152523519472001</v>
+      </c>
+      <c r="S18">
+        <v>0.03032034985995932</v>
+      </c>
+      <c r="T18">
+        <v>0.03352640372592488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.449404</v>
+      </c>
+      <c r="I19">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J19">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3168843333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.950653</v>
+      </c>
+      <c r="O19">
+        <v>0.04768937875882193</v>
+      </c>
+      <c r="P19">
+        <v>0.04935447161056063</v>
+      </c>
+      <c r="Q19">
+        <v>0.04746969564577778</v>
+      </c>
+      <c r="R19">
+        <v>0.427227260812</v>
+      </c>
+      <c r="S19">
+        <v>0.003119471799928302</v>
+      </c>
+      <c r="T19">
+        <v>0.003449322697761712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.449404</v>
+      </c>
+      <c r="I20">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J20">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.040697</v>
+      </c>
+      <c r="N20">
+        <v>3.122091</v>
+      </c>
+      <c r="O20">
+        <v>0.1566192714045073</v>
+      </c>
+      <c r="P20">
+        <v>0.1620876930121578</v>
+      </c>
+      <c r="Q20">
+        <v>0.155897798196</v>
+      </c>
+      <c r="R20">
+        <v>1.403080183764</v>
+      </c>
+      <c r="S20">
+        <v>0.01024482627342464</v>
+      </c>
+      <c r="T20">
+        <v>0.01132810747010482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.449404</v>
+      </c>
+      <c r="I21">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J21">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.672531</v>
+      </c>
+      <c r="N21">
+        <v>1.345062</v>
+      </c>
+      <c r="O21">
+        <v>0.1012122790946305</v>
+      </c>
+      <c r="P21">
+        <v>0.06983076295287964</v>
+      </c>
+      <c r="Q21">
+        <v>0.100746040508</v>
+      </c>
+      <c r="R21">
+        <v>0.6044762430480001</v>
+      </c>
+      <c r="S21">
+        <v>0.006620527644926953</v>
+      </c>
+      <c r="T21">
+        <v>0.004880385257814116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.440053</v>
+      </c>
+      <c r="H22">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J22">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.534622</v>
+      </c>
+      <c r="N22">
+        <v>4.603866</v>
+      </c>
+      <c r="O22">
+        <v>0.2309523132298141</v>
+      </c>
+      <c r="P22">
+        <v>0.2390161013490993</v>
+      </c>
+      <c r="Q22">
+        <v>0.6753150149659999</v>
+      </c>
+      <c r="R22">
+        <v>4.051890089796</v>
+      </c>
+      <c r="S22">
+        <v>0.04437833688621872</v>
+      </c>
+      <c r="T22">
+        <v>0.03271391537376473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.440053</v>
+      </c>
+      <c r="H23">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J23">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.080022666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.240068000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.4635267575122261</v>
+      </c>
+      <c r="P23">
+        <v>0.4797109710753027</v>
+      </c>
+      <c r="Q23">
+        <v>1.355373214534667</v>
+      </c>
+      <c r="R23">
+        <v>8.132239287208</v>
+      </c>
+      <c r="S23">
+        <v>0.08906837222359844</v>
+      </c>
+      <c r="T23">
+        <v>0.06565760224121023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H16">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I16">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J16">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.644384435125492</v>
-      </c>
-      <c r="N16">
-        <v>0.644384435125492</v>
-      </c>
-      <c r="O16">
-        <v>0.1139889818868199</v>
-      </c>
-      <c r="P16">
-        <v>0.1139889818868199</v>
-      </c>
-      <c r="Q16">
-        <v>0.2523824964691394</v>
-      </c>
-      <c r="R16">
-        <v>0.2523824964691394</v>
-      </c>
-      <c r="S16">
-        <v>0.02735202782906005</v>
-      </c>
-      <c r="T16">
-        <v>0.02735202782906005</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.440053</v>
+      </c>
+      <c r="H24">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J24">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3168843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.950653</v>
+      </c>
+      <c r="O24">
+        <v>0.04768937875882193</v>
+      </c>
+      <c r="P24">
+        <v>0.04935447161056063</v>
+      </c>
+      <c r="Q24">
+        <v>0.1394459015363333</v>
+      </c>
+      <c r="R24">
+        <v>0.8366754092179999</v>
+      </c>
+      <c r="S24">
+        <v>0.009163689624305851</v>
+      </c>
+      <c r="T24">
+        <v>0.006755101428194384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.440053</v>
+      </c>
+      <c r="H25">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J25">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.040697</v>
+      </c>
+      <c r="N25">
+        <v>3.122091</v>
+      </c>
+      <c r="O25">
+        <v>0.1566192714045073</v>
+      </c>
+      <c r="P25">
+        <v>0.1620876930121578</v>
+      </c>
+      <c r="Q25">
+        <v>0.457961836941</v>
+      </c>
+      <c r="R25">
+        <v>2.747771021646</v>
+      </c>
+      <c r="S25">
+        <v>0.03009496935563101</v>
+      </c>
+      <c r="T25">
+        <v>0.02218479442346769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.440053</v>
+      </c>
+      <c r="H26">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J26">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.672531</v>
+      </c>
+      <c r="N26">
+        <v>1.345062</v>
+      </c>
+      <c r="O26">
+        <v>0.1012122790946305</v>
+      </c>
+      <c r="P26">
+        <v>0.06983076295287964</v>
+      </c>
+      <c r="Q26">
+        <v>0.295949284143</v>
+      </c>
+      <c r="R26">
+        <v>1.183797136572</v>
+      </c>
+      <c r="S26">
+        <v>0.01944831188685263</v>
+      </c>
+      <c r="T26">
+        <v>0.00955767271255652</v>
       </c>
     </row>
   </sheetData>
